--- a/StructureDefinition-hiv-diagnosis-encounter.xlsx
+++ b/StructureDefinition-hiv-diagnosis-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:01:09+00:00</t>
+    <t>2023-02-02T13:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-diagnosis-encounter.xlsx
+++ b/StructureDefinition-hiv-diagnosis-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:08:56+00:00</t>
+    <t>2023-02-02T13:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-diagnosis-encounter.xlsx
+++ b/StructureDefinition-hiv-diagnosis-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T13:32:48+00:00</t>
+    <t>2023-02-03T13:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
